--- a/Lacin_summary_FinalConfirmation_moredata.xlsx
+++ b/Lacin_summary_FinalConfirmation_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432860E-23A3-4DDF-AF26-9638993EA9A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F0910-8AA2-44AE-BBAD-615DA7576CD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2835" windowWidth="17280" windowHeight="9030" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
+    <workbookView xWindow="3180" yWindow="3180" windowWidth="17280" windowHeight="9030" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Lacin_summary_FinalConfirmation_moredata.xlsx
+++ b/Lacin_summary_FinalConfirmation_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F0910-8AA2-44AE-BBAD-615DA7576CD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3907DD3-4F38-49D3-9B5D-9FA5AFD38A53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3180" windowWidth="17280" windowHeight="9030" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Lacin_summary_FinalConfirmation_moredata.xlsx
+++ b/Lacin_summary_FinalConfirmation_moredata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3907DD3-4F38-49D3-9B5D-9FA5AFD38A53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BB404-8D55-4CE0-95BC-AA517C26F448}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
   </bookViews>

--- a/Lacin_summary_FinalConfirmation_moredata.xlsx
+++ b/Lacin_summary_FinalConfirmation_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BB404-8D55-4CE0-95BC-AA517C26F448}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA077AC-4AD6-4FA6-BDDA-67A4B5344A45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{BAEFE485-2076-4906-B3F0-633BE609F4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
